--- a/biology/Zoologie/Capillaria_javanensis/Capillaria_javanensis.xlsx
+++ b/biology/Zoologie/Capillaria_javanensis/Capillaria_javanensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tridentocapillaria javanensis
 Capillaria javanensis est une espèce de nématodes de la famille des Capillariidae, parasitant le système digestif d'oiseaux.
@@ -512,9 +524,11 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capillaria javanensis est un parasite intestinal d'oiseaux et a été trouvé chez plusieurs espèces de Piciformes[1] comme Dinopium everetti, la sous-espèce hargitti du Pic à ventre blanc (Dryocopus javensis), la sous-espèce chrysopsis du Barbu à joues jaunes (Megalaima chrysopogon) et la sous-espèce nominale du Pic tukki (Meiglyptes tukki)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capillaria javanensis est un parasite intestinal d'oiseaux et a été trouvé chez plusieurs espèces de Piciformes comme Dinopium everetti, la sous-espèce hargitti du Pic à ventre blanc (Dryocopus javensis), la sous-espèce chrysopsis du Barbu à joues jaunes (Megalaima chrysopogon) et la sous-espèce nominale du Pic tukki (Meiglyptes tukki).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capillaria javanensis a été originellement décrit d'oiseaux provenant de Taïwan et de Bornéo, en Indonésie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capillaria javanensis a été originellement décrit d'oiseaux provenant de Taïwan et de Bornéo, en Indonésie.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en 1971 sous le protonyme Capillaria javanensis. En 1990, Vlastimil Baruš et Tamara Petrovna Sergejeva placent cette espèce sans le genre Tridentocapillaria[1], considéré comme sous-genre de Capillaria par le parasitologiste tchèque František Moravec dans sa monographie de 2001 sur les nématodes de la super-famille des Trichinelloidea parasitant les animaux à sang froid[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en 1971 sous le protonyme Capillaria javanensis. En 1990, Vlastimil Baruš et Tamara Petrovna Sergejeva placent cette espèce sans le genre Tridentocapillaria, considéré comme sous-genre de Capillaria par le parasitologiste tchèque František Moravec dans sa monographie de 2001 sur les nématodes de la super-famille des Trichinelloidea parasitant les animaux à sang froid.
 </t>
         </is>
       </c>
